--- a/fuentes/contenidos/grado08/guion08/EsqueletoGuion_CN_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/EsqueletoGuion_CN_08_08_CO.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="102">
   <si>
     <t>TITULO</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos adicionales 01</t>
+  </si>
+  <si>
+    <t>Video como media principal - 01</t>
+  </si>
+  <si>
+    <t>RF_01_02_CO</t>
   </si>
   <si>
     <t>Recurso M102AB-01</t>
@@ -840,8 +852,8 @@
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375"/>
@@ -1073,6 +1085,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
       <c r="F12">
         <v>11</v>
       </c>
@@ -1088,7 +1115,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
@@ -1108,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -1128,7 +1155,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -1148,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
@@ -1168,7 +1195,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1188,7 +1215,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -1208,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
@@ -1228,7 +1255,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1248,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1268,7 +1295,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -1288,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
@@ -1308,7 +1335,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -1356,44 +1383,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
       </c>
       <c r="C4">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1441,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625"/>
     <col min="5" max="1025" width="10.7109375"/>
@@ -1439,7 +1466,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,7 +1477,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1488,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +1499,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,7 +1510,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1521,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +1532,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1516,7 +1543,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,7 +1554,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,15 +1565,18 @@
         <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,10 +1584,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,10 +1595,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,10 +1606,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,10 +1617,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,10 +1628,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,10 +1639,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,10 +1650,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,10 +1661,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,10 +1672,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,10 +1683,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +1694,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,10 +1705,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +1716,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,10 +1727,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,10 +1738,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1767,7 @@
     <col min="5" max="5" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="1025" width="10.7109375" style="8"/>
     <col min="1026" max="16384" width="9" style="8"/>
@@ -1777,10 +1807,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1788,10 +1818,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1799,10 +1829,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1810,10 +1840,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1821,13 +1851,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1835,13 +1865,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1849,13 +1879,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1863,13 +1893,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1877,16 +1907,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1894,16 +1924,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1911,16 +1941,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1928,16 +1958,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1945,16 +1975,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1962,16 +1992,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1979,16 +2009,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1996,16 +2026,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2013,16 +2043,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2030,16 +2060,16 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2047,16 +2077,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2064,16 +2094,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2081,22 +2111,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,16 +2134,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2121,16 +2151,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2138,16 +2168,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,16 +2185,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2172,22 +2202,22 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2195,13 +2225,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2209,13 +2239,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2223,13 +2253,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2237,13 +2267,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2251,19 +2281,19 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>32</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,10 +2301,10 @@
         <v>20</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2282,10 +2312,10 @@
         <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2293,10 +2323,10 @@
         <v>20</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2304,10 +2334,10 @@
         <v>20</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2315,13 +2345,13 @@
         <v>20</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,13 +2359,13 @@
         <v>20</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2343,13 +2373,13 @@
         <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2357,13 +2387,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2371,16 +2401,16 @@
         <v>20</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,16 +2418,16 @@
         <v>20</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2405,16 +2435,16 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2422,16 +2452,16 @@
         <v>20</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,16 +2469,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,16 +2486,16 @@
         <v>20</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2473,16 +2503,16 @@
         <v>20</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,16 +2520,16 @@
         <v>20</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2507,16 +2537,16 @@
         <v>20</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2524,16 +2554,16 @@
         <v>20</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2541,16 +2571,16 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,16 +2588,16 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2575,13 +2605,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,13 +2619,13 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2603,13 +2633,13 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2617,13 +2647,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2631,13 +2661,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2645,13 +2675,13 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2659,13 +2689,13 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2673,13 +2703,13 @@
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2687,19 +2717,19 @@
         <v>20</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2707,13 +2737,13 @@
         <v>20</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2721,13 +2751,13 @@
         <v>20</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2735,13 +2765,13 @@
         <v>20</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2749,13 +2779,13 @@
         <v>20</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2763,19 +2793,19 @@
         <v>20</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2783,13 +2813,13 @@
         <v>20</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2797,13 +2827,13 @@
         <v>20</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2811,13 +2841,13 @@
         <v>20</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2825,13 +2855,13 @@
         <v>20</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2839,19 +2869,19 @@
         <v>20</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2859,10 +2889,10 @@
         <v>20</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2870,10 +2900,10 @@
         <v>20</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2881,10 +2911,10 @@
         <v>20</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2892,10 +2922,10 @@
         <v>20</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2903,13 +2933,13 @@
         <v>20</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2917,13 +2947,13 @@
         <v>20</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2931,13 +2961,13 @@
         <v>20</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2945,13 +2975,13 @@
         <v>20</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2959,13 +2989,13 @@
         <v>20</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,13 +3003,13 @@
         <v>20</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2987,13 +3017,13 @@
         <v>20</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3001,13 +3031,13 @@
         <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3015,16 +3045,16 @@
         <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3032,16 +3062,16 @@
         <v>20</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3049,16 +3079,16 @@
         <v>20</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3066,16 +3096,16 @@
         <v>20</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3083,16 +3113,16 @@
         <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3100,16 +3130,16 @@
         <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3117,16 +3147,16 @@
         <v>20</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3134,16 +3164,16 @@
         <v>20</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3151,22 +3181,22 @@
         <v>20</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3174,16 +3204,16 @@
         <v>20</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3191,16 +3221,16 @@
         <v>20</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3208,16 +3238,16 @@
         <v>20</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3225,16 +3255,16 @@
         <v>20</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3242,22 +3272,22 @@
         <v>20</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>38</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3265,13 +3295,13 @@
         <v>20</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3279,13 +3309,13 @@
         <v>20</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,13 +3323,13 @@
         <v>20</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3307,13 +3337,13 @@
         <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3321,19 +3351,19 @@
         <v>20</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3341,10 +3371,10 @@
         <v>20</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3352,10 +3382,10 @@
         <v>20</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3363,10 +3393,10 @@
         <v>20</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3374,10 +3404,10 @@
         <v>20</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3385,13 +3415,16 @@
         <v>20</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3399,13 +3432,13 @@
         <v>20</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3413,13 +3446,13 @@
         <v>20</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3427,13 +3460,13 @@
         <v>20</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3441,13 +3474,13 @@
         <v>20</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3455,13 +3488,13 @@
         <v>20</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3469,13 +3502,13 @@
         <v>20</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3483,13 +3516,13 @@
         <v>20</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3497,13 +3530,13 @@
         <v>20</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3511,19 +3544,19 @@
         <v>20</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3531,13 +3564,13 @@
         <v>20</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3545,13 +3578,13 @@
         <v>20</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3559,13 +3592,13 @@
         <v>20</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3573,13 +3606,13 @@
         <v>20</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3587,19 +3620,19 @@
         <v>20</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3607,13 +3640,13 @@
         <v>20</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3621,13 +3654,13 @@
         <v>20</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3635,13 +3668,13 @@
         <v>20</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3649,13 +3682,13 @@
         <v>20</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3663,19 +3696,19 @@
         <v>20</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3683,10 +3716,10 @@
         <v>20</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3694,10 +3727,10 @@
         <v>20</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,10 +3738,10 @@
         <v>20</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,10 +3749,10 @@
         <v>20</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3727,13 +3760,13 @@
         <v>20</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,13 +3774,13 @@
         <v>20</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3755,13 +3788,13 @@
         <v>20</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3769,13 +3802,13 @@
         <v>20</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3783,13 +3816,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3797,13 +3830,13 @@
         <v>20</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3811,13 +3844,13 @@
         <v>20</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3825,13 +3858,13 @@
         <v>20</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3839,13 +3872,13 @@
         <v>20</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,13 +3886,13 @@
         <v>20</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3867,13 +3900,13 @@
         <v>20</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3881,13 +3914,13 @@
         <v>20</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3895,13 +3928,13 @@
         <v>20</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3909,13 +3942,13 @@
         <v>20</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -3923,13 +3956,13 @@
         <v>20</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -3937,13 +3970,13 @@
         <v>20</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -3951,19 +3984,19 @@
         <v>20</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -3971,13 +4004,13 @@
         <v>20</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -3985,13 +4018,13 @@
         <v>20</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3999,13 +4032,13 @@
         <v>20</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4013,13 +4046,13 @@
         <v>20</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4027,19 +4060,19 @@
         <v>20</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4047,16 +4080,16 @@
         <v>20</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,16 +4097,16 @@
         <v>20</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4081,16 +4114,16 @@
         <v>20</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -4098,16 +4131,16 @@
         <v>20</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -4115,22 +4148,22 @@
         <v>20</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -4138,10 +4171,10 @@
         <v>20</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -4149,10 +4182,10 @@
         <v>20</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -4160,10 +4193,10 @@
         <v>20</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -4171,10 +4204,10 @@
         <v>20</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -4182,16 +4215,16 @@
         <v>20</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I162" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -4199,10 +4232,10 @@
         <v>20</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -4210,10 +4243,10 @@
         <v>20</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -4221,10 +4254,10 @@
         <v>20</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -4232,10 +4265,10 @@
         <v>20</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -4243,10 +4276,10 @@
         <v>20</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -4254,10 +4287,10 @@
         <v>20</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -4265,10 +4298,10 @@
         <v>20</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4276,10 +4309,10 @@
         <v>20</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -4287,10 +4320,10 @@
         <v>20</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4298,10 +4331,10 @@
         <v>20</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -4309,10 +4342,10 @@
         <v>20</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -4320,10 +4353,10 @@
         <v>20</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -4331,10 +4364,10 @@
         <v>20</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4342,10 +4375,10 @@
         <v>20</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -4353,10 +4386,10 @@
         <v>20</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4364,10 +4397,10 @@
         <v>20</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4375,13 +4408,13 @@
         <v>20</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4389,16 +4422,16 @@
         <v>20</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C180" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I180" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="H180" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I180" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
